--- a/data/trans_dic/P1804-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1804-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,45; 9,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 5,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 11,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 13,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 9,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 7,16</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 6,65</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 11,49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,34</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 13,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 13,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 9,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 11,28</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>2,44; 5,49</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 7,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 11,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 9,68</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>0; 0,15</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 7,97</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 8,02</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,69; 7,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,1; 8,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 8,41</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 8,73</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 7,11</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 7,95</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,52; 10,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,15; 9,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 13,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 9,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 11,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 8,91</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13,64%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>7,9; 13,01</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 9,54</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 16,63</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 9,09</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 14,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 8,7</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>5,44; 7,17</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 7,11</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 10,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 8,91</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 8,87</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 7,67</t>
         </is>
       </c>
     </row>
@@ -1158,15 +1633,15 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1804-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,01</t>
+          <t>4,85; 13,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,16</t>
+          <t>2,34; 6,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,49</t>
+          <t>3,9; 11,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,79</t>
+          <t>5,23; 12,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,28</t>
+          <t>5,66; 10,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,18</t>
+          <t>3,01; 7,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,68</t>
+          <t>5,96; 9,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,02</t>
+          <t>4,99; 7,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,49</t>
+          <t>1,81; 7,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,73</t>
+          <t>5,33; 8,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,95</t>
+          <t>3,55; 7,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,47</t>
+          <t>5,19; 9,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,88</t>
+          <t>6,53; 9,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 8,91</t>
+          <t>6,28; 8,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 13,01</t>
+          <t>8,12; 15,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,54</t>
+          <t>6,27; 10,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8,69; 15,62</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 8,66</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>11,05; 16,63</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,38; 9,09</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,1</t>
+          <t>9,05; 14,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 8,7</t>
+          <t>3,4; 8,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 12,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 9,73</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 20,22</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 10,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 16,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 9,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,44; 7,17</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 7,11</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 6,58</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>8,83; 10,97</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 8,91</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 8,56</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>7,43; 8,87</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 7,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 7,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1804-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,41</t>
+          <t>4,29; 9,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 4,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,8</t>
+          <t>5,93; 11,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,39</t>
+          <t>4,56; 13,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,56</t>
+          <t>5,87; 9,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,64</t>
+          <t>2,34; 6,73</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,65</t>
+          <t>3,16; 6,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,75</t>
+          <t>4,14; 11,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 13,04</t>
+          <t>7,96; 12,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,62</t>
+          <t>5,46; 12,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,23</t>
+          <t>6,08; 9,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,6</t>
+          <t>5,96; 10,79</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,49</t>
+          <t>2,53; 5,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,02</t>
+          <t>2,93; 7,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,32</t>
+          <t>6,88; 11,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,68</t>
+          <t>6,22; 9,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 7,97</t>
+          <t>5,17; 7,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 7,95</t>
+          <t>4,97; 7,72</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,45</t>
+          <t>3,6; 7,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,4</t>
+          <t>1,95; 7,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,41</t>
+          <t>4,45; 8,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,53</t>
+          <t>5,16; 8,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,11</t>
+          <t>4,58; 7,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,24</t>
+          <t>3,14; 7,19</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,79</t>
+          <t>5,64; 10,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,53</t>
+          <t>5,1; 9,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,92</t>
+          <t>7,97; 13,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 9,94</t>
+          <t>6,59; 10,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,66</t>
+          <t>7,56; 11,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,93</t>
+          <t>6,29; 9,12</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 15,34</t>
+          <t>8,02; 15,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,73</t>
+          <t>6,36; 10,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 15,62</t>
+          <t>8,44; 15,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,66</t>
+          <t>2,28; 8,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,05; 14,0</t>
+          <t>9,23; 14,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,65</t>
+          <t>3,36; 8,76</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,78</t>
+          <t>6,11; 12,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,73</t>
+          <t>5,02; 10,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,71; 20,22</t>
+          <t>11,44; 19,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,74</t>
+          <t>6,76; 10,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,26</t>
+          <t>10,5; 16,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,68</t>
+          <t>6,62; 9,73</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,17</t>
+          <t>5,47; 7,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,58</t>
+          <t>4,26; 6,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,83; 10,97</t>
+          <t>8,89; 10,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,56</t>
+          <t>6,21; 8,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,87</t>
+          <t>7,54; 8,8</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,27</t>
+          <t>5,65; 7,27</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27696</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33356</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25371</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>61052</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28971</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18000; 39693</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17039</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23465; 45672</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14173; 42782</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47856; 76526</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16598; 47847</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28256</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30165</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58872</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47316</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>87128</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>77481</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18661; 40257</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17542; 50718</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44878; 72996</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27933; 64365</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70142; 105436</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>55746; 100886</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25823</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25298</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>59550</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42445</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85373</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>67743</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16900; 36694</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15738; 38460</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2010</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45482; 76905</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33759; 53082</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>68741; 104054</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53611; 83308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33452</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41899</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40434</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47917</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73886</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>89816</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2055</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23233; 46540</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17309; 64942</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28915; 54499</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36766; 58877</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2172</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59258; 93139</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50209; 115121</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38026</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38970</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>53625</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>44157</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>91651</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>83127</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26936; 50864</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28640; 52002</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39590; 69073</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>36006; 54963</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>73708; 114261</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69727; 101042</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>37267</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30775</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>43523</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32847</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>80790</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>63623</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2101</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26805; 50163</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>23414; 39331</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31891; 56773</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13883; 52804</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>65756; 100070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>32794; 85552</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23168</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>20126</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>62551</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36676</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>85719</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>56802</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15712; 32102</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14190; 28587</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2202</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>45799; 79432</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>28734; 44970</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2141</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>68980; 106786</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>46885; 68867</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>213690</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>190834</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>351909</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>276729</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>565599</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>467563</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>185760; 244295</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>147506; 224128</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>315259; 385176</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>227113; 314421</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>523278; 610624</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>402222; 517418</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>